--- a/biology/Botanique/Gesse_aphylle/Gesse_aphylle.xlsx
+++ b/biology/Botanique/Gesse_aphylle/Gesse_aphylle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lathyrus aphaca
-La Gesse aphylle[1] ou Gesse sans feuilles (Lathyrus aphaca) est une espèce de plante herbacée annuelle de la famille des Fabaceae (de la sous-famille des Faboideae selon la classification phylogénétique).
+La Gesse aphylle ou Gesse sans feuilles (Lathyrus aphaca) est une espèce de plante herbacée annuelle de la famille des Fabaceae (de la sous-famille des Faboideae selon la classification phylogénétique).
 </t>
         </is>
       </c>
@@ -512,12 +524,49 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante grimpante, aux tiges ailées, aux feuilles réduites à des vrilles, de grandes stipules opposées par paires jouant le rôle de limbes foliaires. Les fleurs jaunes sont généralement solitaires, portées par de longs pédoncules.
 On rencontre cette gesse dans les lisières, les prés secs, les talus, sur substrat calcaire. Elle est originaire d'Europe, d'Asie et d'Afrique du Nord. Elle est fréquente dans l'est de la France.
-Caractéristiques
-Organes reproducteurs
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Gesse_aphylle</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gesse_aphylle</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Organes reproducteurs
 Couleur dominante des fleurs : jaune
 Période de floraison : juin-août
 Inflorescence : racème simple
@@ -534,31 +583,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Gesse_aphylle</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Gesse_aphylle</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Aphaca marmorata Alef.
 Lathyrus affinis Guss.
